--- a/Hybrid_FrameWork/DataTables/DatasEngine.xlsx
+++ b/Hybrid_FrameWork/DataTables/DatasEngine.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LiveProject_Maven\Hybrid_FrameWork\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\git\Hybrid-Ashok\Hybrid_FrameWork\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47666D9-6331-407F-A42B-1232E130A93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0111B8-F020-4668-9A85-9FD108E65BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="72" windowWidth="13260" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ApplicationLogin" sheetId="2" r:id="rId1"/>
-    <sheet name="MasterTestCases" sheetId="1" r:id="rId2"/>
+    <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
     <sheet name="StockItems" sheetId="3" r:id="rId3"/>
     <sheet name="Suppliers" sheetId="4" r:id="rId4"/>
     <sheet name="Customers" sheetId="5" r:id="rId5"/>
@@ -816,6 +816,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1034,90 +1118,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2255,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
